--- a/Modulo 03/Aulas Módulo 03.xlsx
+++ b/Modulo 03/Aulas Módulo 03.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML 5 e CSS - CeV/Modulo 03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5-CSS-CeV/Modulo 03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20815F-2FBE-0C47-93D7-BCD3200338B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49F191-E24F-0F4A-8F16-A7E2E6EA76DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="460" windowWidth="27240" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
+    <workbookView xWindow="17380" yWindow="460" windowWidth="20960" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -149,6 +149,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Primeiro repositório git e GitHub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 05:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gerenciando Repositórios GitHub</t>
     </r>
   </si>
 </sst>
@@ -757,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEE8B7-4280-884E-B98F-2A59710F6108}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,6 +839,15 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
